--- a/Finflux Automation Excels/Client/5008-DISB1stTranche-EARLYREPAY-DISBTOPUP-Verify.xlsx
+++ b/Finflux Automation Excels/Client/5008-DISB1stTranche-EARLYREPAY-DISBTOPUP-Verify.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -311,6 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +602,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +757,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,13 +888,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -922,13 +927,13 @@
       <c r="E2" s="9">
         <v>10000</v>
       </c>
-      <c r="F2" s="9">
-        <v>1625</v>
+      <c r="F2" s="12">
+        <v>1627.83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>350</v>
+        <v>352.83</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -940,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>350</v>
+        <v>352.83</v>
       </c>
       <c r="F3" s="10">
         <v>100</v>
@@ -996,7 +1001,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1044,10 @@
       <c r="L1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="8"/>
       <c r="O1" s="8" t="s">
         <v>51</v>
       </c>
@@ -1092,11 +1097,11 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="9">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="9">
-        <v>8375</v>
+      <c r="F3" s="12">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="12">
+        <v>8372.17</v>
       </c>
       <c r="H3" s="10">
         <v>100</v>
@@ -1107,22 +1112,22 @@
       <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <v>1725</v>
+      <c r="K3" s="12">
+        <v>1727.83</v>
       </c>
       <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
       <c r="O3" s="10">
         <v>0</v>
       </c>
       <c r="P3" s="10"/>
-      <c r="Q3" s="9">
-        <v>1725</v>
+      <c r="Q3" s="12">
+        <v>1727.83</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,13 +1143,13 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="12">
-        <v>1641.25</v>
+        <v>1641.28</v>
       </c>
       <c r="G4" s="12">
-        <v>6733.75</v>
+        <v>6730.89</v>
       </c>
       <c r="H4" s="10">
-        <v>83.75</v>
+        <v>83.72</v>
       </c>
       <c r="I4" s="10">
         <v>0</v>
@@ -1158,10 +1163,10 @@
       <c r="L4" s="10">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
       <c r="O4" s="10">
         <v>0</v>
       </c>
@@ -1183,13 +1188,13 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="12">
-        <v>1657.66</v>
+        <v>1657.69</v>
       </c>
       <c r="G5" s="12">
-        <v>5076.09</v>
+        <v>5073.2</v>
       </c>
       <c r="H5" s="10">
-        <v>67.34</v>
+        <v>67.31</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -1203,10 +1208,10 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
       <c r="O5" s="10">
         <v>0</v>
       </c>
@@ -1228,13 +1233,13 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="12">
-        <v>1674.24</v>
+        <v>1674.27</v>
       </c>
       <c r="G6" s="12">
-        <v>3401.85</v>
+        <v>3398.93</v>
       </c>
       <c r="H6" s="10">
-        <v>50.76</v>
+        <v>50.73</v>
       </c>
       <c r="I6" s="10">
         <v>0</v>
@@ -1248,10 +1253,10 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
       <c r="O6" s="10">
         <v>0</v>
       </c>
@@ -1273,13 +1278,13 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="12">
-        <v>1690.98</v>
+        <v>1691.01</v>
       </c>
       <c r="G7" s="12">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="H7" s="10">
-        <v>34.020000000000003</v>
+        <v>33.99</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1293,10 +1298,10 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
       <c r="O7" s="10">
         <v>0</v>
       </c>
@@ -1318,13 +1323,13 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="12">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
       <c r="H8" s="10">
-        <v>14.13</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
@@ -1338,10 +1343,10 @@
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
@@ -1360,12 +1365,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1404,7 +1411,7 @@
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>370</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>58</v>
@@ -1438,7 +1445,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>369</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>58</v>
@@ -1472,7 +1479,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>366</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>58</v>
